--- a/doc/Brother -fLUIG- TAREFAS E PENDENCIAS - estimativa.xlsx
+++ b/doc/Brother -fLUIG- TAREFAS E PENDENCIAS - estimativa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexferreira/Documents/Fluig/GitProjects/brother/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48BFDDEE-5E36-4447-A0B9-45DC22ED8779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E3406-6FBF-7247-86A3-F275AE8920B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brother - MIIT006 - TAREFAS E P" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="495">
   <si>
     <t>Criado por</t>
   </si>
@@ -1464,9 +1464,6 @@
     <t>5) AO CANCELARMOS UMA AÇÃO DEVEMOS TER A OPÇÃO DE ENVIAR O COMUNICADO DE CANCELAMENTO PARA O SOLICITANTE/EXECUTIVO/DEPT. FINANCEIRO/CLIENTE (COM OPÇÃO S/N)</t>
   </si>
   <si>
-    <t>6) TER UM CADASTRO DE % PARA QUANDO A AÇÃO ENVOLVER MAIS DE UMA LINHA , E ESTA NÃO SER POR ITEM, TRAZER AUTOMÁTICAMENTE O % DE RATEIO. BEM COMO, NO CASO DE AÇÕES POR ITEM, CALCULAR AUTOMATICAMENTE, COM BASE NO VALOR TOTAL DA AÇÃO E CATERGORIAS DOS ITENS.</t>
-  </si>
-  <si>
     <t>7) QUANDO O PAGAMENTO É EM VALE A AÇÃO NÃO NECESSITA DE ND, DESTA FORMA SEGUIRÁ PARA O FINANCEIRO LOGO APÓS A PROVAÇÃO DAS EVIDÊNCIAS. PARA ESTAS AÇÕES, TER UM CAMPO ONDE POSSAMOS ATUALIZAR PARA O CLIENTE O STATUS DE COMPRA E ENVIO DOS VALES, ONDE ELE PODERÁ CONSULTAR SEMPRE QUE ACESSAR O LINK DA AÇÃO. ESTA ATUALIZAÇÃO ONDE EM 3 MOMENTOS: ACEITE DAS EVIDÊNCIAS / COMPRA DO VALE PRAZO DE ENVIO/ DATA DE POSTAGEM E NUMERO DE RASTREIO</t>
   </si>
   <si>
@@ -1645,9 +1642,6 @@
     <t>Configurar e-mail para trazer orientação para que o cliente clique no link do Portal</t>
   </si>
   <si>
-    <t>Alterar o formulário de Ação de Marketing para trazer o campo Necessário o Envio de ND marcado como default para ações de Spiff, mas permitindo alterar</t>
-  </si>
-  <si>
     <t>Configurar filtros para permitir a movimentação em bloco de solicitações que estejam na mesma atividade</t>
   </si>
   <si>
@@ -1682,6 +1676,77 @@
   </si>
   <si>
     <t>Alterar o fluxo para permitir finalizar a ação na etapa de Erros</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>6) TER UM CADASTRO DE % PARA QUANDO A AÇÃO ENVOLVER MAIS DE UMA LINHA , E ESTA NÃO SER POR ITEM, TRAZER AUTOMÁTICAMENTE O % DE RATEIO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BEM COMO, NO CASO DE AÇÕES POR ITEM, CALCULAR AUTOMATICAMENTE, COM BASE NO VALOR TOTAL DA AÇÃO E CATERGORIAS DOS ITENS.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">QTDE </t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>SRP</t>
+  </si>
+  <si>
+    <t>DEIXAR ABAS DO PORTAL ABERTAS</t>
+  </si>
+  <si>
+    <t>Alterar o formulário de Ação de Marketing para trazer o campo Necessário o Envio de ND desmarcado como default para ações de Spiff, mas permitindo alterar</t>
+  </si>
+  <si>
+    <t>Cliente, Solicitação, Data de Início, Término, Nome da ação, Valor Projetado, Valor Liberado</t>
+  </si>
+  <si>
+    <t>Destacar valor projetado na aprovação da gerência e presidência, e valor a ser pago nos demais</t>
+  </si>
+  <si>
+    <t>Notificar também o responsável financeiro</t>
+  </si>
+  <si>
+    <t>cód solicitacao</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Tipo de ação</t>
+  </si>
+  <si>
+    <t>a cada 15 dias</t>
+  </si>
+  <si>
+    <t>Cliente, Solicitação, Data de Início, Término, Nome da ação, Valor Projetado, Valor Liberado, Itens</t>
+  </si>
+  <si>
+    <t>Enviar para gerenciamento de vales quando não for necessário o envio de ND
+Status: Comprado / Enviado
+Datas de Compra e Postagem
+Incluir novo tipo de notificação (Vales)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1951,8 +2016,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2062,6 +2132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2252,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2533,12 +2609,21 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4721,7 +4806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="397" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -5284,7 +5369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="397" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
@@ -5321,7 +5406,7 @@
       </c>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="126" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
@@ -5358,7 +5443,7 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="154" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +7417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>308</v>
       </c>
@@ -7417,7 +7502,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="132" t="s">
         <v>325</v>
       </c>
       <c r="B26" s="54" t="s">
@@ -7425,19 +7510,19 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="54" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="54" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="40" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>256</v>
       </c>
@@ -7476,7 +7561,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="132" t="s">
         <v>325</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -7517,7 +7602,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="54" t="s">
         <v>327</v>
       </c>
@@ -7556,7 +7641,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="54" t="s">
         <v>328</v>
       </c>
@@ -9536,10 +9621,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91C625-4D1C-6848-999E-ED92DA739789}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9549,9 +9634,11 @@
     <col min="4" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="75.1640625" style="127" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" style="127" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="114" t="s">
         <v>394</v>
       </c>
@@ -9564,13 +9651,13 @@
         <v>396</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9580,21 +9667,21 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="134" t="s">
         <v>255</v>
       </c>
       <c r="G2" s="127" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129">
+    <row r="3" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>398</v>
       </c>
       <c r="C3" s="118" t="s">
@@ -9610,15 +9697,15 @@
         <v>402</v>
       </c>
       <c r="G3" s="127" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
+    <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="118" t="s">
         <v>400</v>
       </c>
@@ -9628,19 +9715,19 @@
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="134" t="s">
         <v>403</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="118" t="s">
         <v>401</v>
       </c>
@@ -9650,90 +9737,93 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="134" t="s">
         <v>404</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="F6" s="127" t="s">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="F6" s="134" t="s">
         <v>405</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="F7" s="127" t="s">
+    <row r="7" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="F7" s="134" t="s">
         <v>406</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="F8" s="127" t="s">
-        <v>407</v>
+    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="F8" s="134" t="s">
+        <v>478</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="F9" s="127" t="s">
-        <v>408</v>
+    <row r="9" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="F9" s="134" t="s">
+        <v>407</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="F10" s="127" t="s">
-        <v>409</v>
+      <c r="I9" s="129" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="F10" s="134" t="s">
+        <v>408</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="129">
+    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="130">
         <v>1</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="130" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="118" t="s">
         <v>410</v>
-      </c>
-      <c r="C11" s="118" t="s">
-        <v>411</v>
       </c>
       <c r="D11" t="s">
         <v>395</v>
@@ -9741,21 +9831,21 @@
       <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>414</v>
+      <c r="F11" s="134" t="s">
+        <v>413</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
+    <row r="12" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
         <v>395</v>
@@ -9764,20 +9854,20 @@
         <v>1</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
         <v>395</v>
@@ -9785,125 +9875,134 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="127" t="s">
-        <v>416</v>
+      <c r="F13" s="134" t="s">
+        <v>415</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="F14" s="127" t="s">
-        <v>417</v>
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="F14" s="134" t="s">
+        <v>416</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="F15" s="127" t="s">
-        <v>418</v>
+    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="F15" s="134" t="s">
+        <v>417</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="F16" s="127" t="s">
-        <v>419</v>
-      </c>
-      <c r="G16" s="127" t="s">
-        <v>467</v>
+      <c r="I15" s="54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="F16" s="134" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>484</v>
       </c>
       <c r="H16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="129">
+    <row r="17" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="130">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="F17" s="134" t="s">
         <v>420</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="F17" s="127" t="s">
-        <v>421</v>
-      </c>
       <c r="G17" s="127" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="F18" s="127" t="s">
-        <v>422</v>
+      <c r="I17" s="129" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="F18" s="134" t="s">
+        <v>421</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="F19" s="127" t="s">
-        <v>423</v>
+      <c r="I18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="F19" s="134" t="s">
+        <v>422</v>
       </c>
       <c r="G19" s="127" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129">
+    <row r="20" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="130">
         <v>1</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="130" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="131"/>
+      <c r="F20" s="128" t="s">
         <v>424</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="F20" s="128" t="s">
-        <v>425</v>
-      </c>
       <c r="G20" s="127" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="129"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
+    <row r="21" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
       <c r="F21" s="128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G21" s="127" t="s">
         <v>385</v>
@@ -9912,12 +10011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F22" s="128" t="s">
         <v>230</v>
@@ -9929,161 +10028,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="129">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="130">
         <v>1</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="131"/>
+      <c r="F23" s="134" t="s">
         <v>428</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="F23" s="127" t="s">
-        <v>429</v>
-      </c>
       <c r="G23" s="127" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="F24" s="127" t="s">
-        <v>430</v>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="F24" s="134" t="s">
+        <v>429</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A25" s="129">
+    <row r="25" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A25" s="130">
         <v>1</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="130" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" s="131" t="s">
         <v>431</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="F25" s="134" t="s">
         <v>432</v>
       </c>
-      <c r="F25" s="127" t="s">
-        <v>433</v>
-      </c>
       <c r="G25" s="127" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="129"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
+    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
       <c r="D26" t="s">
         <v>395</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="127" t="s">
-        <v>434</v>
+      <c r="F26" s="134" t="s">
+        <v>433</v>
       </c>
       <c r="G26" s="127" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C27" s="118" t="s">
         <v>214</v>
       </c>
       <c r="D27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E27">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
-      </c>
-      <c r="F28" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="F28" s="134" t="s">
         <v>282</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F29" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="134" t="s">
         <v>274</v>
       </c>
       <c r="G29" s="127" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H29">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
-      </c>
-      <c r="F30" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="134" t="s">
         <v>239</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
-      </c>
-      <c r="F31" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="F31" s="134" t="s">
         <v>289</v>
       </c>
       <c r="G31" s="127" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H31">
         <v>48</v>
+      </c>
+      <c r="I31" s="129" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -10100,12 +10208,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -10116,6 +10218,12 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>
 </worksheet>
@@ -10140,16 +10248,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="125" t="s">
         <v>445</v>
-      </c>
-      <c r="B1" s="124" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="124" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="125" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -10163,7 +10271,7 @@
         <v>395</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -10177,7 +10285,7 @@
         <v>395</v>
       </c>
       <c r="D3" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -10191,12 +10299,12 @@
         <v>395</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="121" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="122" t="s">
         <v>395</v>
@@ -10205,12 +10313,12 @@
         <v>395</v>
       </c>
       <c r="D5" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="122" t="s">
         <v>395</v>
@@ -10219,12 +10327,12 @@
         <v>395</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="122" t="s">
         <v>395</v>
@@ -10233,12 +10341,12 @@
         <v>395</v>
       </c>
       <c r="D7" s="123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="122" t="s">
         <v>395</v>
@@ -10247,7 +10355,7 @@
         <v>395</v>
       </c>
       <c r="D8" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -10258,22 +10366,22 @@
         <v>395</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D9" s="126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="121" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="121"/>
       <c r="C10" s="122" t="s">
         <v>395</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -10308,8 +10416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10369,7 +10477,9 @@
     </row>
     <row r="8" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+      <c r="B9" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="C9" s="32" t="s">
         <v>205</v>
       </c>
@@ -10415,7 +10525,7 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="38" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
@@ -10440,7 +10550,9 @@
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
+      <c r="B15" s="34" t="s">
+        <v>480</v>
+      </c>
       <c r="C15" s="35" t="s">
         <v>207</v>
       </c>
@@ -10479,7 +10591,7 @@
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="38" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -10504,7 +10616,9 @@
       <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
+      <c r="B21" s="34" t="s">
+        <v>481</v>
+      </c>
       <c r="C21" s="35" t="s">
         <v>210</v>
       </c>
@@ -10573,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10600,7 +10714,20 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="3:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" t="s">
+        <v>491</v>
+      </c>
+    </row>
     <row r="3" spans="3:18" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="42" t="s">
         <v>256</v>
